--- a/dev_docs/escrupulos/estimacion y entregas.xlsx
+++ b/dev_docs/escrupulos/estimacion y entregas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="16515" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="16515" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <r>
       <t>Proyecto</t>
@@ -151,6 +151,37 @@
   </si>
   <si>
     <t>Reporte de alticulos vendidos de cada empresa o una sola empresa</t>
+  </si>
+  <si>
+    <r>
+      <t>Entrega</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -259,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -275,6 +306,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -597,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,12 +644,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -634,18 +668,18 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>SUM(B10:B100)</f>
-        <v>8.5</v>
+        <f>SUM(B10:B99)</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -658,15 +692,15 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -685,16 +719,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -737,16 +771,16 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -765,41 +799,65 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
@@ -819,12 +877,247 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>SUM(B10:B99)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B19:I19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/dev_docs/escrupulos/estimacion y entregas.xlsx
+++ b/dev_docs/escrupulos/estimacion y entregas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="16515" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="16515" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
